--- a/biology/Histoire de la zoologie et de la botanique/Dean_Amadon/Dean_Amadon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dean_Amadon/Dean_Amadon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dean Amadon est un ornithologue américain, né le 5 juin 1912 à Milwaukee et mort le 12 janvier 2003 (à 90 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il fait ses études au Hobart College, à Genève et à l’université Cornell. En 1937, il rejoint l’American Museum of Natural History de New York où il dirige le département ornithologique de 1957 à 1973. Amadon préside l’American Ornithologists' Union de 1964 à 1966. Amadon est notamment l’auteur de :
 Avec Robert Cushman Murphy (1887-1973), Land birds of America (McGraw-Hill, New York, 1953).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia.</t>
         </is>
